--- a/ctRSD-simulator-2.0/Sequence Compiler/ctRSD_domains_list.xlsx
+++ b/ctRSD-simulator-2.0/Sequence Compiler/ctRSD_domains_list.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/sws5_nist_gov/Documents/Presentations and write ups/Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/sws5_nist_gov/Documents/ctRSD simulator and documentation/ctRSD-simulator/ctRSD-simulator-2.0/Sequence Compiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{E1C3FCFF-2D55-4B69-9572-20A4E3E70D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4FF7B8-4D4F-4DB2-AFEA-12D2461084EE}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="8_{E1C3FCFF-2D55-4B69-9572-20A4E3E70D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90456584-3E0D-4B7D-9C21-FE759DC2C973}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{980EA118-346D-431E-9A26-5E166E32CA41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="13" xr2:uid="{980EA118-346D-431E-9A26-5E166E32CA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
-    <sheet name="th" sheetId="1" r:id="rId2"/>
-    <sheet name="I BM" sheetId="4" r:id="rId3"/>
-    <sheet name="O BM" sheetId="5" r:id="rId4"/>
-    <sheet name="r" sheetId="6" r:id="rId5"/>
+    <sheet name="5hp" sheetId="10" r:id="rId2"/>
+    <sheet name="th" sheetId="1" r:id="rId3"/>
+    <sheet name="I BM" sheetId="4" r:id="rId4"/>
+    <sheet name="O BM" sheetId="5" r:id="rId5"/>
     <sheet name="L" sheetId="7" r:id="rId6"/>
-    <sheet name="e" sheetId="13" r:id="rId7"/>
-    <sheet name="Rz" sheetId="8" r:id="rId8"/>
-    <sheet name="term" sheetId="9" r:id="rId9"/>
-    <sheet name="5hp" sheetId="10" r:id="rId10"/>
-    <sheet name="US" sheetId="11" r:id="rId11"/>
-    <sheet name="DS" sheetId="12" r:id="rId12"/>
+    <sheet name="r" sheetId="6" r:id="rId7"/>
+    <sheet name="e" sheetId="13" r:id="rId8"/>
+    <sheet name="Rz" sheetId="8" r:id="rId9"/>
+    <sheet name="s" sheetId="14" r:id="rId10"/>
+    <sheet name="terminators" sheetId="9" r:id="rId11"/>
+    <sheet name="promoters" sheetId="15" r:id="rId12"/>
+    <sheet name="US" sheetId="11" r:id="rId13"/>
+    <sheet name="DS" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="292">
   <si>
     <t>u</t>
   </si>
@@ -56,24 +58,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>v3</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
-    <t>v5</t>
-  </si>
-  <si>
-    <t>v6</t>
-  </si>
-  <si>
     <t>r1</t>
   </si>
   <si>
@@ -95,108 +79,6 @@
     <t>3hp</t>
   </si>
   <si>
-    <t>I1</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
-    <t>I7</t>
-  </si>
-  <si>
-    <t>I8</t>
-  </si>
-  <si>
-    <t>I9</t>
-  </si>
-  <si>
-    <t>I10</t>
-  </si>
-  <si>
-    <t>I11</t>
-  </si>
-  <si>
-    <t>I12</t>
-  </si>
-  <si>
-    <t>I13</t>
-  </si>
-  <si>
-    <t>I14</t>
-  </si>
-  <si>
-    <t>I15</t>
-  </si>
-  <si>
-    <t>I16</t>
-  </si>
-  <si>
-    <t>I17</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>O5</t>
-  </si>
-  <si>
-    <t>O6</t>
-  </si>
-  <si>
-    <t>O7</t>
-  </si>
-  <si>
-    <t>O8</t>
-  </si>
-  <si>
-    <t>O9</t>
-  </si>
-  <si>
-    <t>O10</t>
-  </si>
-  <si>
-    <t>O11</t>
-  </si>
-  <si>
-    <t>O12</t>
-  </si>
-  <si>
-    <t>O13</t>
-  </si>
-  <si>
-    <t>O14</t>
-  </si>
-  <si>
-    <t>O15</t>
-  </si>
-  <si>
-    <t>O16</t>
-  </si>
-  <si>
-    <t>O17</t>
-  </si>
-  <si>
     <t>Ro</t>
   </si>
   <si>
@@ -881,21 +763,9 @@
     <t>CTCTCGCCTGCCATCTGGCAGGCTTTTTTTTA</t>
   </si>
   <si>
-    <t>CTTTCAGAACGCTCGGTCTTGCACACCGGGCGTTTTTTCTTTGTGAGTCCA</t>
-  </si>
-  <si>
     <t>CTATGCCCCCGGAAGATCATTCCGGGGGCTTTTTTATT</t>
   </si>
   <si>
-    <t>CAATCATTAGCGCAAGGTGATTTTTGTCTTCTTGCGCTAATTTTTT</t>
-  </si>
-  <si>
-    <t>CTGACAAGCGGTGGAGATCTTCTCTGCCGCTTTTTTTTTCATA</t>
-  </si>
-  <si>
-    <t>CACGTACGCCTGATAAGCGAAGCGCATCAGGCTTTTTTTTG</t>
-  </si>
-  <si>
     <t>CATGCGTGCCCATTCCTGACGGAATGGGCATTTTTTTTCTG</t>
   </si>
   <si>
@@ -1034,24 +904,12 @@
     <t>ctgaaacctcaggcatttgagaagcacacg</t>
   </si>
   <si>
-    <t>pDUET</t>
-  </si>
-  <si>
-    <t>pPET</t>
-  </si>
-  <si>
     <t>ctgaaaggaggaactatatccggattggcg</t>
   </si>
   <si>
-    <t>excess</t>
-  </si>
-  <si>
     <t>actgtgtacttgttataacatctgacagttaaagtcgggagaataggagccgcaatacacaatttaccgcatctagacttaactgagatattaccatagatgactatatcta</t>
   </si>
   <si>
-    <t>ev</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -1080,13 +938,418 @@
   </si>
   <si>
     <t>Q. Zhang Nature Chemical Biology 2021 R1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>AATC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>AGTA</t>
+  </si>
+  <si>
+    <t>AGAGTA</t>
+  </si>
+  <si>
+    <t>e02</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>duet</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>GAAGGATT</t>
+  </si>
+  <si>
+    <t>GATGATGT</t>
+  </si>
+  <si>
+    <t>u08</t>
+  </si>
+  <si>
+    <t>u010</t>
+  </si>
+  <si>
+    <t>u012</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>CTTTAACCCCTTGGGGCCTCTAAACGGGTCTTGAGGGGTTTTTTG</t>
+  </si>
+  <si>
+    <t>T7t1</t>
+  </si>
+  <si>
+    <t>T7t0</t>
+  </si>
+  <si>
+    <t>AGCATAACCCCTTGGGGCCTCTAAACGGGTCTTGAGGGGTTTTTTG</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>r6</t>
+  </si>
+  <si>
+    <t>r7</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>r9</t>
+  </si>
+  <si>
+    <t>r10</t>
+  </si>
+  <si>
+    <t>r11</t>
+  </si>
+  <si>
+    <t>r12</t>
+  </si>
+  <si>
+    <t>r13</t>
+  </si>
+  <si>
+    <t>r14</t>
+  </si>
+  <si>
+    <t>r15</t>
+  </si>
+  <si>
+    <t>r16</t>
+  </si>
+  <si>
+    <t>r17</t>
+  </si>
+  <si>
+    <t>TACCAT</t>
+  </si>
+  <si>
+    <t>ACCTAT</t>
+  </si>
+  <si>
+    <t>ACAATA</t>
+  </si>
+  <si>
+    <t>ATCATT</t>
+  </si>
+  <si>
+    <t>TTCCAT</t>
+  </si>
+  <si>
+    <t>AACCAT</t>
+  </si>
+  <si>
+    <t>ATTCTA</t>
+  </si>
+  <si>
+    <t>ATATAA</t>
+  </si>
+  <si>
+    <t>TTTCAT</t>
+  </si>
+  <si>
+    <t>CAATTA</t>
+  </si>
+  <si>
+    <t>CACTAT</t>
+  </si>
+  <si>
+    <t>CCATAA</t>
+  </si>
+  <si>
+    <t>ATCCAA</t>
+  </si>
+  <si>
+    <t>ATACTA</t>
+  </si>
+  <si>
+    <t>AACTAA</t>
+  </si>
+  <si>
+    <t>CTACTT</t>
+  </si>
+  <si>
+    <t>T7p</t>
+  </si>
+  <si>
+    <t>T7p1</t>
+  </si>
+  <si>
+    <t>SP6</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>EcT7A1</t>
+  </si>
+  <si>
+    <t>TTCTAATACGACTCACTATA</t>
+  </si>
+  <si>
+    <t>GCGCTAATACGACTCACTATA</t>
+  </si>
+  <si>
+    <t>TTCATTTAGGTGACACTATA</t>
+  </si>
+  <si>
+    <t>TTCAATTAACCCTCACTAAA</t>
+  </si>
+  <si>
+    <t>TTGACAGCTAGCTCAGTCCTAGGTATAATACTAGTAAA</t>
+  </si>
+  <si>
+    <t>EcJ119s</t>
+  </si>
+  <si>
+    <t>taaggatgatttctggaattctaaagatct</t>
+  </si>
+  <si>
+    <t>TTGACTTAAAGTCTAACCTATAGGATACTTACAGCCA</t>
+  </si>
+  <si>
+    <t>agattaatttaaaatttatcaaaaagagta</t>
+  </si>
+  <si>
+    <t>exc</t>
+  </si>
+  <si>
+    <t>T500</t>
+  </si>
+  <si>
+    <t>atctcaaaGCCCGCCgaaaGGCGGGCtttttttt</t>
+  </si>
+  <si>
+    <t>AGAGTATGATGT</t>
+  </si>
+  <si>
+    <t>AGTATGATGT</t>
+  </si>
+  <si>
+    <t>TATGATGT</t>
+  </si>
+  <si>
+    <t>u04</t>
+  </si>
+  <si>
+    <t>ATGT</t>
+  </si>
+  <si>
+    <t>GGGAGATTCGTCTCCCT</t>
+  </si>
+  <si>
+    <t>5hpT</t>
+  </si>
+  <si>
+    <t>ATATAACCCCTTGGGGCCTCTAAACGGGTCTTGAGGGGTTTTTTG</t>
+  </si>
+  <si>
+    <t>T7tA</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>T7tI</t>
+  </si>
+  <si>
+    <t>TACTAACCCCTTGGGGCCTCTAAACGGGTCTTGAGGGGTTTTTTG</t>
+  </si>
+  <si>
+    <t>pet_seq</t>
+  </si>
+  <si>
+    <t>cgaatgggacgcgccctgtag</t>
+  </si>
+  <si>
+    <t>glhp</t>
+  </si>
+  <si>
+    <t>pET backbone sequencing primer sequence</t>
+  </si>
+  <si>
+    <t>genelet hairpin sequence for 3' ends of transcripts</t>
+  </si>
+  <si>
+    <t>duet_seq</t>
+  </si>
+  <si>
+    <t>gtcacactgcttccggtagtca</t>
+  </si>
+  <si>
+    <t>ACTGACAAAGTCAGTAT</t>
+  </si>
+  <si>
+    <t>CACGTAGGCCTGATAAGCGAAGCGCATCAGGCTTTTTTTTG</t>
+  </si>
+  <si>
+    <t>CTGACAAGCGGTGGAGATCTTCTCTGCCGCTTTTTTTTTTG</t>
+  </si>
+  <si>
+    <t>CAATCATTAGCGCAAGGTGATTTTTGTCTTCTTGCGCTAATTTTTTTTTG</t>
+  </si>
+  <si>
+    <t>CATTCAGAACGCTCGGTCTTGCACACCGGGCGTTTTTTCTTTG</t>
+  </si>
+  <si>
+    <t>5hp0</t>
+  </si>
+  <si>
+    <t>GGGAGATTCGTCTCCC</t>
+  </si>
+  <si>
+    <t>no spacer after hairpin</t>
+  </si>
+  <si>
+    <t>single T spacer after hairpin</t>
+  </si>
+  <si>
+    <t>single A spacer after hairpin</t>
+  </si>
+  <si>
+    <t>TTAC</t>
+  </si>
+  <si>
+    <t>s4w</t>
+  </si>
+  <si>
+    <t>ctgaaaggaggaactatatccggatatccc</t>
+  </si>
+  <si>
+    <t>pet1</t>
+  </si>
+  <si>
+    <t>T7t2</t>
+  </si>
+  <si>
+    <t>AATTAACCCCTTGGGGCCTCTAAACGGGTCTTGAGGGGTTTTTTG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1382,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1140,10 +1409,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,90 +1741,90 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1563,11 +1833,517 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B945FB0-221F-43E8-9E69-B668E1A80790}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF546D9-7AC1-4C74-9679-A83DE0EBC5C7}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2D1ADD-A868-4734-BB8A-5C203BCB2D50}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="62.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE05048F-FFFC-4A1D-957B-BEEC0EBE291E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7731CD-D723-4AE8-A59F-B900B1BC6EB5}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F4FF3-D95A-477A-8EA6-731FBEE38C37}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B945FB0-221F-43E8-9E69-B668E1A80790}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,167 +2354,93 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>261</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>282</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7731CD-D723-4AE8-A59F-B900B1BC6EB5}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18A8B71-96CC-46FF-A737-E4D2E8EE00BB}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8F4FF3-D95A-477A-8EA6-731FBEE38C37}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="136.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18A8B71-96CC-46FF-A737-E4D2E8EE00BB}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,13 +2450,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1762,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1770,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1778,69 +2480,118 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DE0108-CB58-4FF3-A637-BE4BF8869346}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1850,149 +2601,149 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2001,12 +2752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB94663-41BD-410B-9573-A087135200A6}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2016,149 +2767,149 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2167,12 +2918,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEEB84-CC5C-46D6-AEC0-DC3A340892F2}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BA4C0-6514-468E-BC2E-08513F3EA230}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEEB84-CC5C-46D6-AEC0-DC3A340892F2}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2182,95 +3003,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BA4C0-6514-468E-BC2E-08513F3EA230}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA6BCA-A485-49CC-9E34-786DB84742E2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2280,45 +3173,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +3219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A26017-E997-44BB-9842-E94C30FB97BF}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -2341,317 +3234,176 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2D1ADD-A868-4734-BB8A-5C203BCB2D50}">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="62.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>